--- a/biology/Zoologie/Gephyromantis_klemmeri/Gephyromantis_klemmeri.xlsx
+++ b/biology/Zoologie/Gephyromantis_klemmeri/Gephyromantis_klemmeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gephyromantis klemmeri est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gephyromantis klemmeri est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 600 et 900 m d'altitude dans le nord-est de l'île. Sa présence est incertaine dans la presqu'île de Masoala[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 600 et 900 m d'altitude dans le nord-est de l'île. Sa présence est incertaine dans la presqu'île de Masoala,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gephyromantis klemmeri mesure de 20 à 21 mm pour les mâles et de 21 à 26 mm pour les femelles. Son dos est vert olive avec des barres transversales sombres. Ses pattes antérieures sont rayées de sombre. Les mâles ont une paire de sacs vocaux et des glandes fémorales proéminentes[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gephyromantis klemmeri mesure de 20 à 21 mm pour les mâles et de 21 à 26 mm pour les femelles. Son dos est vert olive avec des barres transversales sombres. Ses pattes antérieures sont rayées de sombre. Les mâles ont une paire de sacs vocaux et des glandes fémorales proéminentes.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Konrad Klemmer[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Konrad Klemmer.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Guibé, 1974 : Batraciens nouveaux de Madagascar. Bulletin du Museum National d'Histoire Naturelle, sér. 3, Zoologie, vol. 171, p. 1169-1192 (texte intégral).</t>
         </is>
